--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_const_years.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_const_years.xlsx
@@ -13349,9 +13349,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{503D7FCB-5D9E-49D8-844F-31F3054C9BBC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E152D35-E99C-4B94-9596-D2B03A8E2C1F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5CB8EA1-AE0A-45B6-95FB-A09740D489EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{117622C0-1D6F-4E55-9416-BD7ED8277974}"/>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_const_years.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_const_years.xlsx
@@ -7,40 +7,17 @@
   </bookViews>
   <sheets>
     <sheet name="Resultados Generales" r:id="rId3" sheetId="1"/>
-    <sheet name="Resultados Generales (modelo fu" r:id="rId6" sheetId="2"/>
-    <sheet name="Resultados Generales (efectos m" r:id="rId7" sheetId="3"/>
-    <sheet name="Por Corporacion_grupos" r:id="rId8" sheetId="4"/>
-    <sheet name="Por Estado" r:id="rId9" sheetId="5"/>
-    <sheet name="Por Sexo" r:id="rId10" sheetId="6"/>
-    <sheet name="Por Robo_vehiculo" r:id="rId11" sheetId="7"/>
-    <sheet name="Por Robo_casa_hab" r:id="rId12" sheetId="8"/>
-    <sheet name="Por Robo_negocio" r:id="rId13" sheetId="9"/>
-    <sheet name="Por Robo_transporte_pub" r:id="rId14" sheetId="10"/>
-    <sheet name="Por Robo_transeunte" r:id="rId15" sheetId="11"/>
-    <sheet name="Por Robo_autopartes" r:id="rId16" sheetId="12"/>
-    <sheet name="Por Robo_otros" r:id="rId17" sheetId="13"/>
-    <sheet name="Por Posesion_drogas" r:id="rId18" sheetId="14"/>
-    <sheet name="Por Comercio_drogas" r:id="rId19" sheetId="15"/>
-    <sheet name="Por Lesiones" r:id="rId20" sheetId="16"/>
-    <sheet name="Por Hom_culposo" r:id="rId21" sheetId="17"/>
-    <sheet name="Por Hom_doloso" r:id="rId22" sheetId="18"/>
-    <sheet name="Por Portacion_armas" r:id="rId23" sheetId="19"/>
-    <sheet name="Por Violencia_fam" r:id="rId24" sheetId="20"/>
-    <sheet name="Por Danio_prop" r:id="rId25" sheetId="21"/>
-    <sheet name="Por Secuestro" r:id="rId26" sheetId="22"/>
-    <sheet name="Por Violacion_sexual" r:id="rId27" sheetId="23"/>
-    <sheet name="Por Delincuencia_org" r:id="rId28" sheetId="24"/>
-    <sheet name="Por Otros_sexuales" r:id="rId29" sheetId="25"/>
-    <sheet name="Por Extorsion" r:id="rId30" sheetId="26"/>
-    <sheet name="Por Privacion_de_libertad" r:id="rId31" sheetId="27"/>
-    <sheet name="Por Abuso_de_conf" r:id="rId32" sheetId="28"/>
-    <sheet name="Por Amenazas" r:id="rId33" sheetId="29"/>
+    <sheet name="Resultados Generales (modelo fu" r:id="rId4" sheetId="2"/>
+    <sheet name="Resultados Generales (efectos m" r:id="rId5" sheetId="3"/>
+    <sheet name="Por Corporacion_grupos" r:id="rId6" sheetId="4"/>
+    <sheet name="Por Estado" r:id="rId7" sheetId="5"/>
+    <sheet name="Por Sexo" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="195">
   <si>
     <t>Hip</t>
   </si>
@@ -625,81 +602,6 @@
   </si>
   <si>
     <t>Masculino</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Robo_vehiculo</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Robo_casa_hab</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Robo_negocio</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Robo_transporte_pub</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Robo_transeunte</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Robo_autopartes</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Robo_otros</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Posesion_drogas</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Comercio_drogas</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Lesiones</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Hom_culposo</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Hom_doloso</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Portacion_armas</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Violencia_fam</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Danio_prop</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Secuestro</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Violacion_sexual</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Delincuencia_org</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Otros_sexuales</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Extorsion</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Privacion_de_libertad</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Abuso_de_conf</t>
-  </si>
-  <si>
-    <t>hyp_detenciones_flagrancia_const_years_Amenazas</t>
   </si>
 </sst>
 </file>
@@ -837,1366 +739,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.575840112886769E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0014280504840843656</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0023432185066617163</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8270.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.004641527758176808</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.001959679394214599</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.011242734910568214</v>
-      </c>
-      <c r="L3" t="n">
-        <v>425.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.78533333124516E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0015939849630423057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0023510516292913363</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7783.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.001793489643135448</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.006671641227639383</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.003084661941368488</v>
-      </c>
-      <c r="L3" t="n">
-        <v>912.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.418967694432201E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0010899866973884836</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.002573780236274917</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8657.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.018652077091810857</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.023573916701246506</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.06087807088486821</v>
-      </c>
-      <c r="L3" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.453810941038753E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-9.568555631367533E-4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.002847617751344505</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8183.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.0028529252942006518</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.009196742207962665</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0034908916195613617</v>
-      </c>
-      <c r="L3" t="n">
-        <v>512.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0010281773312689167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-8.372374319704718E-4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.002893592094508301</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8437.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.006470429284756034</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.017561973828727408</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.004621115259215345</v>
-      </c>
-      <c r="L3" t="n">
-        <v>258.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.609046798615649E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0010762032720329504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.002598012631756077</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8570.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0020351239626672586</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.023816429267285406</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.027886677192619922</v>
-      </c>
-      <c r="L3" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.029908500405944E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0012677906369362008</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0024737723370174005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8357.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.004725060783416868</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.004023379233206643</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.01347350080004037</v>
-      </c>
-      <c r="L3" t="n">
-        <v>338.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.0430776992342153E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0014469791644604255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0022555947043072697</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8364.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.005937183983878969</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.004657211825916531</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.01653157979367446</v>
-      </c>
-      <c r="L3" t="n">
-        <v>331.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.164454268644739E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0014846081410555558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0023174989947845038</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7534.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.001388218456141574</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.007296332159590875</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.004519895247307727</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1161.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.001816928327031399</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-2.0997498678519493E-4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0038438316408479787</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7624.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0025640898452044996</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.0026787664608403316</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.007806946151249331</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1071.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -6717,1366 +5259,6 @@
         <v>8679.0</v>
       </c>
       <c r="K129" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.557191364402653E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-9.834501390459244E-4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.002694888411926454</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8631.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.009847011448864153</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.029135354844290105</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.009441331946561804</v>
-      </c>
-      <c r="L3" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.367288248217029E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0011003595868878113</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0025738172365312277</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8601.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.007533261484558836</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.013168291519862567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.02823481448898023</v>
-      </c>
-      <c r="L3" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.469155273519565E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0012918321841674891</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0023856632388713998</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8532.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.006240848344748408</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.010036296672953107</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.02251799336244992</v>
-      </c>
-      <c r="L3" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.75319482070333E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0012457349567711017</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0023963739209117716</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8290.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.0278825599491637E-4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.011247022189951595</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.011652598701941429</v>
-      </c>
-      <c r="L3" t="n">
-        <v>405.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.484391238872904E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.001189683999598909</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.002486562247373496</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8615.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.012646512288303813</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.004162192808004898</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.029455217384612525</v>
-      </c>
-      <c r="L3" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.196245558779047E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0012230981292862136</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.002462347241042018</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8547.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.010079399241555412</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.005247703185927148</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.025406501669037976</v>
-      </c>
-      <c r="L3" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.90857915086003E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0010522955227466628</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.002634011352918667</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8474.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.002578944369996618</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.011012711578431552</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.01617060031842479</v>
-      </c>
-      <c r="L3" t="n">
-        <v>221.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.297982551280386E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0010153183608097457</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.002674914871065824</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8580.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.004424291105148773</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.019407296598609777</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.010558714388312226</v>
-      </c>
-      <c r="L3" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.429791455158565E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.001084825813483692</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0025707841045154102</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8692.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.476267215795837E-10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-2.5753693476233373E-5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.575478872967653E-5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.369246042745174E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-9.956244610087198E-4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0026694736695577464</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8668.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.009873058411582916</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.04000463555810045</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.020258518734934623</v>
-      </c>
-      <c r="L3" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12686,672 +9868,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.088746500153676E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0011206633204768903</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0029384126205076262</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7023.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.6120591918911213E-4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.004069481289759173</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.004391893128137397</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1672.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0011467883236352013</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-7.444237528520506E-4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0030380004001224524</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8085.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.0034527614494145684</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.01057028145792203</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0036647585590928906</v>
-      </c>
-      <c r="L3" t="n">
-        <v>610.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.48204197276286E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.0018962892247956528</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0021926976193482246</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7082.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0030673542229691622</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.0010667548159964922</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0072014632619348245</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1613.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
-    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
-    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E152D35-E99C-4B94-9596-D2B03A8E2C1F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{117622C0-1D6F-4E55-9416-BD7ED8277974}"/>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_const_years.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_const_years.xlsx
@@ -9868,4 +9868,264 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
+    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{496D923B-4F48-46AC-A310-A844EB84C3FB}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66DCFA30-ECFB-4C69-B034-D1A21FCEBBE0}"/>
 </file>